--- a/سرویس های دوره ای تجهیزات گندله سازی/App_groups_Vs_Parseh.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/App_groups_Vs_Parseh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidaralavi\Documents\GitHub\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C28870-E04D-432E-8A01-481CFBDD0BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6BA92-5590-4315-9FAC-F8AB7A92CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
